--- a/natmiOut/OldD2/LR-pairs_lrc2p/St6gal1-Cd22.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/St6gal1-Cd22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.09289423118997</v>
+        <v>6.4085295</v>
       </c>
       <c r="H2">
-        <v>6.09289423118997</v>
+        <v>12.817059</v>
       </c>
       <c r="I2">
-        <v>0.1826100675819973</v>
+        <v>0.1846012962579885</v>
       </c>
       <c r="J2">
-        <v>0.1826100675819973</v>
+        <v>0.1391288936589039</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.86793984054889</v>
+        <v>6.090704</v>
       </c>
       <c r="N2">
-        <v>3.86793984054889</v>
+        <v>18.272112</v>
       </c>
       <c r="O2">
-        <v>0.3025244047280793</v>
+        <v>0.3871818832536809</v>
       </c>
       <c r="P2">
-        <v>0.3025244047280793</v>
+        <v>0.387181883253681</v>
       </c>
       <c r="Q2">
-        <v>23.56694834107018</v>
+        <v>39.032456259768</v>
       </c>
       <c r="R2">
-        <v>23.56694834107018</v>
+        <v>234.194737558608</v>
       </c>
       <c r="S2">
-        <v>0.05524400199259805</v>
+        <v>0.07147427753623865</v>
       </c>
       <c r="T2">
-        <v>0.05524400199259805</v>
+        <v>0.05386818706185554</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,57 +599,57 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.09289423118997</v>
+        <v>6.4085295</v>
       </c>
       <c r="H3">
-        <v>6.09289423118997</v>
+        <v>12.817059</v>
       </c>
       <c r="I3">
-        <v>0.1826100675819973</v>
+        <v>0.1846012962579885</v>
       </c>
       <c r="J3">
-        <v>0.1826100675819973</v>
+        <v>0.1391288936589039</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.917606647925471</v>
+        <v>9.579525333333335</v>
       </c>
       <c r="N3">
-        <v>8.917606647925471</v>
+        <v>28.738576</v>
       </c>
       <c r="O3">
-        <v>0.6974755952719208</v>
+        <v>0.608963866777362</v>
       </c>
       <c r="P3">
-        <v>0.6974755952719208</v>
+        <v>0.608963866777362</v>
       </c>
       <c r="Q3">
-        <v>54.33403410116642</v>
+        <v>61.39067069466401</v>
       </c>
       <c r="R3">
-        <v>54.33403410116642</v>
+        <v>368.3440241679841</v>
       </c>
       <c r="S3">
-        <v>0.1273660655893992</v>
+        <v>0.112415519181378</v>
       </c>
       <c r="T3">
-        <v>0.1273660655893992</v>
+        <v>0.08472446906298255</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.404438346770255</v>
+        <v>6.4085295</v>
       </c>
       <c r="H4">
-        <v>0.404438346770255</v>
+        <v>12.817059</v>
       </c>
       <c r="I4">
-        <v>0.01212141734849111</v>
+        <v>0.1846012962579885</v>
       </c>
       <c r="J4">
-        <v>0.01212141734849111</v>
+        <v>0.1391288936589039</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.86793984054889</v>
+        <v>0.06063066666666667</v>
       </c>
       <c r="N4">
-        <v>3.86793984054889</v>
+        <v>0.181892</v>
       </c>
       <c r="O4">
-        <v>0.3025244047280793</v>
+        <v>0.003854249968956984</v>
       </c>
       <c r="P4">
-        <v>0.3025244047280793</v>
+        <v>0.003854249968956984</v>
       </c>
       <c r="Q4">
-        <v>1.564343194518397</v>
+        <v>0.388553415938</v>
       </c>
       <c r="R4">
-        <v>1.564343194518397</v>
+        <v>2.331320495628</v>
       </c>
       <c r="S4">
-        <v>0.003667024567812887</v>
+        <v>0.000711499540371771</v>
       </c>
       <c r="T4">
-        <v>0.003667024567812887</v>
+        <v>0.0005362375340658501</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.404438346770255</v>
+        <v>0.4057736666666667</v>
       </c>
       <c r="H5">
-        <v>0.404438346770255</v>
+        <v>1.217321</v>
       </c>
       <c r="I5">
-        <v>0.01212141734849111</v>
+        <v>0.01168853866616727</v>
       </c>
       <c r="J5">
-        <v>0.01212141734849111</v>
+        <v>0.01321399269190776</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.917606647925471</v>
+        <v>6.090704</v>
       </c>
       <c r="N5">
-        <v>8.917606647925471</v>
+        <v>18.272112</v>
       </c>
       <c r="O5">
-        <v>0.6974755952719208</v>
+        <v>0.3871818832536809</v>
       </c>
       <c r="P5">
-        <v>0.6974755952719208</v>
+        <v>0.387181883253681</v>
       </c>
       <c r="Q5">
-        <v>3.606622089834413</v>
+        <v>2.471447294661334</v>
       </c>
       <c r="R5">
-        <v>3.606622089834413</v>
+        <v>22.243025651952</v>
       </c>
       <c r="S5">
-        <v>0.008454392780678227</v>
+        <v>0.004525590413250111</v>
       </c>
       <c r="T5">
-        <v>0.008454392780678227</v>
+        <v>0.005116218575753225</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.745777081009271</v>
+        <v>0.4057736666666667</v>
       </c>
       <c r="H6">
-        <v>8.745777081009271</v>
+        <v>1.217321</v>
       </c>
       <c r="I6">
-        <v>0.2621195909892353</v>
+        <v>0.01168853866616727</v>
       </c>
       <c r="J6">
-        <v>0.2621195909892353</v>
+        <v>0.01321399269190776</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.86793984054889</v>
+        <v>9.579525333333335</v>
       </c>
       <c r="N6">
-        <v>3.86793984054889</v>
+        <v>28.738576</v>
       </c>
       <c r="O6">
-        <v>0.3025244047280793</v>
+        <v>0.608963866777362</v>
       </c>
       <c r="P6">
-        <v>0.3025244047280793</v>
+        <v>0.608963866777362</v>
       </c>
       <c r="Q6">
-        <v>33.82813960819514</v>
+        <v>3.88711911943289</v>
       </c>
       <c r="R6">
-        <v>33.82813960819514</v>
+        <v>34.98407207489601</v>
       </c>
       <c r="S6">
-        <v>0.07929757323158601</v>
+        <v>0.00711789770312593</v>
       </c>
       <c r="T6">
-        <v>0.07929757323158601</v>
+        <v>0.008046844085231954</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.745777081009271</v>
+        <v>0.4057736666666667</v>
       </c>
       <c r="H7">
-        <v>8.745777081009271</v>
+        <v>1.217321</v>
       </c>
       <c r="I7">
-        <v>0.2621195909892353</v>
+        <v>0.01168853866616727</v>
       </c>
       <c r="J7">
-        <v>0.2621195909892353</v>
+        <v>0.01321399269190776</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>8.917606647925471</v>
+        <v>0.06063066666666667</v>
       </c>
       <c r="N7">
-        <v>8.917606647925471</v>
+        <v>0.181892</v>
       </c>
       <c r="O7">
-        <v>0.6974755952719208</v>
+        <v>0.003854249968956984</v>
       </c>
       <c r="P7">
-        <v>0.6974755952719208</v>
+        <v>0.003854249968956984</v>
       </c>
       <c r="Q7">
-        <v>77.99139983888249</v>
+        <v>0.02460232792577778</v>
       </c>
       <c r="R7">
-        <v>77.99139983888249</v>
+        <v>0.221420951332</v>
       </c>
       <c r="S7">
-        <v>0.1828220177576493</v>
+        <v>4.50505497912277E-05</v>
       </c>
       <c r="T7">
-        <v>0.1828220177576493</v>
+        <v>5.093003092258331E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.105572007138409</v>
+        <v>9.290843000000001</v>
       </c>
       <c r="H8">
-        <v>9.105572007138409</v>
+        <v>27.872529</v>
       </c>
       <c r="I8">
-        <v>0.2729030008570396</v>
+        <v>0.2676279575727097</v>
       </c>
       <c r="J8">
-        <v>0.2729030008570396</v>
+        <v>0.3025556895108087</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.86793984054889</v>
+        <v>6.090704</v>
       </c>
       <c r="N8">
-        <v>3.86793984054889</v>
+        <v>18.272112</v>
       </c>
       <c r="O8">
-        <v>0.3025244047280793</v>
+        <v>0.3871818832536809</v>
       </c>
       <c r="P8">
-        <v>0.3025244047280793</v>
+        <v>0.387181883253681</v>
       </c>
       <c r="Q8">
-        <v>35.21980473739738</v>
+        <v>56.587774623472</v>
       </c>
       <c r="R8">
-        <v>35.21980473739738</v>
+        <v>509.289971611248</v>
       </c>
       <c r="S8">
-        <v>0.08255981788278241</v>
+        <v>0.103620696624338</v>
       </c>
       <c r="T8">
-        <v>0.08255981788278241</v>
+        <v>0.1171440816539109</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,119 +971,119 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.105572007138409</v>
+        <v>9.290843000000001</v>
       </c>
       <c r="H9">
-        <v>9.105572007138409</v>
+        <v>27.872529</v>
       </c>
       <c r="I9">
-        <v>0.2729030008570396</v>
+        <v>0.2676279575727097</v>
       </c>
       <c r="J9">
-        <v>0.2729030008570396</v>
+        <v>0.3025556895108087</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.917606647925471</v>
+        <v>9.579525333333335</v>
       </c>
       <c r="N9">
-        <v>8.917606647925471</v>
+        <v>28.738576</v>
       </c>
       <c r="O9">
-        <v>0.6974755952719208</v>
+        <v>0.608963866777362</v>
       </c>
       <c r="P9">
-        <v>0.6974755952719208</v>
+        <v>0.608963866777362</v>
       </c>
       <c r="Q9">
-        <v>81.19990946402156</v>
+        <v>89.00186588652268</v>
       </c>
       <c r="R9">
-        <v>81.19990946402156</v>
+        <v>801.0167929787041</v>
       </c>
       <c r="S9">
-        <v>0.1903431829742572</v>
+        <v>0.1629757559012051</v>
       </c>
       <c r="T9">
-        <v>0.1903431829742572</v>
+        <v>0.184245482599993</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.80293012517892</v>
+        <v>9.290843000000001</v>
       </c>
       <c r="H10">
-        <v>3.80293012517892</v>
+        <v>27.872529</v>
       </c>
       <c r="I10">
-        <v>0.113977577948683</v>
+        <v>0.2676279575727097</v>
       </c>
       <c r="J10">
-        <v>0.113977577948683</v>
+        <v>0.3025556895108087</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>3.86793984054889</v>
+        <v>0.06063066666666667</v>
       </c>
       <c r="N10">
-        <v>3.86793984054889</v>
+        <v>0.181892</v>
       </c>
       <c r="O10">
-        <v>0.3025244047280793</v>
+        <v>0.003854249968956984</v>
       </c>
       <c r="P10">
-        <v>0.3025244047280793</v>
+        <v>0.003854249968956984</v>
       </c>
       <c r="Q10">
-        <v>14.70950494200312</v>
+        <v>0.5633100049853333</v>
       </c>
       <c r="R10">
-        <v>14.70950494200312</v>
+        <v>5.069790044868</v>
       </c>
       <c r="S10">
-        <v>0.03448099892127359</v>
+        <v>0.001031505047166637</v>
       </c>
       <c r="T10">
-        <v>0.03448099892127359</v>
+        <v>0.001166125256904793</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.80293012517892</v>
+        <v>9.128190666666667</v>
       </c>
       <c r="H11">
-        <v>3.80293012517892</v>
+        <v>27.384572</v>
       </c>
       <c r="I11">
-        <v>0.113977577948683</v>
+        <v>0.2629426656390891</v>
       </c>
       <c r="J11">
-        <v>0.113977577948683</v>
+        <v>0.2972589270036596</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.917606647925471</v>
+        <v>6.090704</v>
       </c>
       <c r="N11">
-        <v>8.917606647925471</v>
+        <v>18.272112</v>
       </c>
       <c r="O11">
-        <v>0.6974755952719208</v>
+        <v>0.3871818832536809</v>
       </c>
       <c r="P11">
-        <v>0.6974755952719208</v>
+        <v>0.387181883253681</v>
       </c>
       <c r="Q11">
-        <v>33.91303496589158</v>
+        <v>55.59710740622933</v>
       </c>
       <c r="R11">
-        <v>33.91303496589158</v>
+        <v>500.3739666560641</v>
       </c>
       <c r="S11">
-        <v>0.07949657902740945</v>
+        <v>0.1018066364698854</v>
       </c>
       <c r="T11">
-        <v>0.07949657902740945</v>
+        <v>0.1150932711712454</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,489 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.2139868959492</v>
+        <v>9.128190666666667</v>
       </c>
       <c r="H12">
-        <v>5.2139868959492</v>
+        <v>27.384572</v>
       </c>
       <c r="I12">
-        <v>0.1562683452745539</v>
+        <v>0.2629426656390891</v>
       </c>
       <c r="J12">
-        <v>0.1562683452745539</v>
+        <v>0.2972589270036596</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.86793984054889</v>
+        <v>9.579525333333335</v>
       </c>
       <c r="N12">
-        <v>3.86793984054889</v>
+        <v>28.738576</v>
       </c>
       <c r="O12">
-        <v>0.3025244047280793</v>
+        <v>0.608963866777362</v>
       </c>
       <c r="P12">
-        <v>0.3025244047280793</v>
+        <v>0.608963866777362</v>
       </c>
       <c r="Q12">
-        <v>20.16738764294175</v>
+        <v>87.44373373883023</v>
       </c>
       <c r="R12">
-        <v>20.16738764294175</v>
+        <v>786.9936036494721</v>
       </c>
       <c r="S12">
-        <v>0.04727498813202637</v>
+        <v>0.1601225824083267</v>
       </c>
       <c r="T12">
-        <v>0.04727498813202637</v>
+        <v>0.1810199456222382</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>9.128190666666667</v>
+      </c>
+      <c r="H13">
+        <v>27.384572</v>
+      </c>
+      <c r="I13">
+        <v>0.2629426656390891</v>
+      </c>
+      <c r="J13">
+        <v>0.2972589270036596</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.06063066666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.181892</v>
+      </c>
+      <c r="O13">
+        <v>0.003854249968956984</v>
+      </c>
+      <c r="P13">
+        <v>0.003854249968956984</v>
+      </c>
+      <c r="Q13">
+        <v>0.5534482855804445</v>
+      </c>
+      <c r="R13">
+        <v>4.981034570224001</v>
+      </c>
+      <c r="S13">
+        <v>0.001013446760876926</v>
+      </c>
+      <c r="T13">
+        <v>0.001145710210176042</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.86779</v>
+      </c>
+      <c r="H14">
+        <v>11.60337</v>
+      </c>
+      <c r="I14">
+        <v>0.1114138661066763</v>
+      </c>
+      <c r="J14">
+        <v>0.1259543262471458</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>6.090704</v>
+      </c>
+      <c r="N14">
+        <v>18.272112</v>
+      </c>
+      <c r="O14">
+        <v>0.3871818832536809</v>
+      </c>
+      <c r="P14">
+        <v>0.387181883253681</v>
+      </c>
+      <c r="Q14">
+        <v>23.55756402416</v>
+      </c>
+      <c r="R14">
+        <v>212.01807621744</v>
+      </c>
+      <c r="S14">
+        <v>0.04313743049975638</v>
+      </c>
+      <c r="T14">
+        <v>0.04876723324031845</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.86779</v>
+      </c>
+      <c r="H15">
+        <v>11.60337</v>
+      </c>
+      <c r="I15">
+        <v>0.1114138661066763</v>
+      </c>
+      <c r="J15">
+        <v>0.1259543262471458</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>9.579525333333335</v>
+      </c>
+      <c r="N15">
+        <v>28.738576</v>
+      </c>
+      <c r="O15">
+        <v>0.608963866777362</v>
+      </c>
+      <c r="P15">
+        <v>0.608963866777362</v>
+      </c>
+      <c r="Q15">
+        <v>37.05159228901334</v>
+      </c>
+      <c r="R15">
+        <v>333.46433060112</v>
+      </c>
+      <c r="S15">
+        <v>0.06784701871693687</v>
+      </c>
+      <c r="T15">
+        <v>0.07670163354879928</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.86779</v>
+      </c>
+      <c r="H16">
+        <v>11.60337</v>
+      </c>
+      <c r="I16">
+        <v>0.1114138661066763</v>
+      </c>
+      <c r="J16">
+        <v>0.1259543262471458</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.06063066666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.181892</v>
+      </c>
+      <c r="O16">
+        <v>0.003854249968956984</v>
+      </c>
+      <c r="P16">
+        <v>0.003854249968956984</v>
+      </c>
+      <c r="Q16">
+        <v>0.2345066862266666</v>
+      </c>
+      <c r="R16">
+        <v>2.11056017604</v>
+      </c>
+      <c r="S16">
+        <v>0.0004294168899830347</v>
+      </c>
+      <c r="T16">
+        <v>0.0004854594580280595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.6143905</v>
+      </c>
+      <c r="H17">
+        <v>11.228781</v>
+      </c>
+      <c r="I17">
+        <v>0.1617256757573693</v>
+      </c>
+      <c r="J17">
+        <v>0.1218881708875742</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.090704</v>
+      </c>
+      <c r="N17">
+        <v>18.272112</v>
+      </c>
+      <c r="O17">
+        <v>0.3871818832536809</v>
+      </c>
+      <c r="P17">
+        <v>0.387181883253681</v>
+      </c>
+      <c r="Q17">
+        <v>34.19559067591199</v>
+      </c>
+      <c r="R17">
+        <v>205.173544055472</v>
+      </c>
+      <c r="S17">
+        <v>0.06261725171021242</v>
+      </c>
+      <c r="T17">
+        <v>0.04719289155059747</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>5.2139868959492</v>
-      </c>
-      <c r="H13">
-        <v>5.2139868959492</v>
-      </c>
-      <c r="I13">
-        <v>0.1562683452745539</v>
-      </c>
-      <c r="J13">
-        <v>0.1562683452745539</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>8.917606647925471</v>
-      </c>
-      <c r="N13">
-        <v>8.917606647925471</v>
-      </c>
-      <c r="O13">
-        <v>0.6974755952719208</v>
-      </c>
-      <c r="P13">
-        <v>0.6974755952719208</v>
-      </c>
-      <c r="Q13">
-        <v>46.49628420551288</v>
-      </c>
-      <c r="R13">
-        <v>46.49628420551288</v>
-      </c>
-      <c r="S13">
-        <v>0.1089933571425275</v>
-      </c>
-      <c r="T13">
-        <v>0.1089933571425275</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5.6143905</v>
+      </c>
+      <c r="H18">
+        <v>11.228781</v>
+      </c>
+      <c r="I18">
+        <v>0.1617256757573693</v>
+      </c>
+      <c r="J18">
+        <v>0.1218881708875742</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>9.579525333333335</v>
+      </c>
+      <c r="N18">
+        <v>28.738576</v>
+      </c>
+      <c r="O18">
+        <v>0.608963866777362</v>
+      </c>
+      <c r="P18">
+        <v>0.608963866777362</v>
+      </c>
+      <c r="Q18">
+        <v>53.783196025976</v>
+      </c>
+      <c r="R18">
+        <v>322.699176155856</v>
+      </c>
+      <c r="S18">
+        <v>0.09848509286638948</v>
+      </c>
+      <c r="T18">
+        <v>0.07422549185811708</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.6143905</v>
+      </c>
+      <c r="H19">
+        <v>11.228781</v>
+      </c>
+      <c r="I19">
+        <v>0.1617256757573693</v>
+      </c>
+      <c r="J19">
+        <v>0.1218881708875742</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.06063066666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.181892</v>
+      </c>
+      <c r="O19">
+        <v>0.003854249968956984</v>
+      </c>
+      <c r="P19">
+        <v>0.003854249968956984</v>
+      </c>
+      <c r="Q19">
+        <v>0.340404238942</v>
+      </c>
+      <c r="R19">
+        <v>2.042425433652</v>
+      </c>
+      <c r="S19">
+        <v>0.0006233311807673878</v>
+      </c>
+      <c r="T19">
+        <v>0.0004697874788596565</v>
       </c>
     </row>
   </sheetData>
